--- a/Mifos Automation Excels/Loan Product/2617-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2617-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>productname</t>
   </si>
@@ -155,10 +155,13 @@
     <t>addcharges</t>
   </si>
   <si>
-    <t>2617-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT</t>
-  </si>
-  <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>2617-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-1st</t>
+  </si>
+  <si>
+    <t>261z</t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -560,15 +563,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2617</v>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -672,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +847,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
